--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocío\Desktop\TFG\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocío\Desktop\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546888D1-F62B-4B4B-8632-E075B3A361AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF1C161-33D1-4BC6-897E-E5FA79C30C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="800" windowWidth="11590" windowHeight="10570" xr2:uid="{0A5AC59E-8987-41C8-9D12-6752D2549D3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0A5AC59E-8987-41C8-9D12-6752D2549D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -245,11 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -579,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294D5EFF-33CE-4AE3-A90B-971BE8D0762D}">
   <dimension ref="A3:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,52 +745,52 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -823,10 +822,7 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -852,25 +848,26 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -898,23 +895,23 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
